--- a/glucose concentration calibration curve.xlsx
+++ b/glucose concentration calibration curve.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Glucose concentration</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,17 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SD R</t>
+          <t>SD of R</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SD G</t>
+          <t>SD of G</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SD B</t>
+          <t>SD of B</t>
         </is>
       </c>
     </row>

--- a/glucose concentration calibration curve.xlsx
+++ b/glucose concentration calibration curve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>SD of B</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Average SD</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -492,6 +497,9 @@
       <c r="G2" t="n">
         <v>2.116461893922949</v>
       </c>
+      <c r="H2" t="n">
+        <v>1.54533382483735</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -515,6 +523,9 @@
       <c r="G3" t="n">
         <v>0.7036581251767267</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.6508359965646305</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -538,6 +549,9 @@
       <c r="G4" t="n">
         <v>1.428784355588723</v>
       </c>
+      <c r="H4" t="n">
+        <v>1.681260663848188</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -561,6 +575,9 @@
       <c r="G5" t="n">
         <v>3.044584895844114</v>
       </c>
+      <c r="H5" t="n">
+        <v>3.058257707495959</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +601,9 @@
       <c r="G6" t="n">
         <v>2.862578393671367</v>
       </c>
+      <c r="H6" t="n">
+        <v>2.883300930168024</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -607,6 +627,9 @@
       <c r="G7" t="n">
         <v>1.200312877311236</v>
       </c>
+      <c r="H7" t="n">
+        <v>1.551911323865152</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -630,6 +653,9 @@
       <c r="G8" t="n">
         <v>2.215087148783053</v>
       </c>
+      <c r="H8" t="n">
+        <v>2.364972353464792</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -652,6 +678,9 @@
       </c>
       <c r="G9" t="n">
         <v>0.22661674742021</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7808454038429713</v>
       </c>
     </row>
   </sheetData>

--- a/glucose concentration calibration curve.xlsx
+++ b/glucose concentration calibration curve.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Glucose concentration</t>
+          <t>Glucose concentration (mM)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
